--- a/xlsx/第二次世界大战_intext.xlsx
+++ b/xlsx/第二次世界大战_intext.xlsx
@@ -29,7 +29,7 @@
     <t>萬家嶺戰役</t>
   </si>
   <si>
-    <t>政策_政策_美國_第二次世界大战</t>
+    <t>体育运动_体育运动_技术_第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
